--- a/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value3282.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value3282.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>0.6687343732515949</v>
+        <v>1.334851980209351</v>
       </c>
       <c r="B1">
-        <v>0.9488393851328731</v>
+        <v>2.748502969741821</v>
       </c>
       <c r="C1">
-        <v>1.773150143563998</v>
+        <v>2.905020475387573</v>
       </c>
       <c r="D1">
-        <v>4.650179530116413</v>
+        <v>1.480071902275085</v>
       </c>
       <c r="E1">
-        <v>2.919641510506726</v>
+        <v>1.079721450805664</v>
       </c>
     </row>
   </sheetData>
